--- a/src/test/resources/visitExcelInstitutionAndPlaceTest.xlsx
+++ b/src/test/resources/visitExcelInstitutionAndPlaceTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\metadata_api\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\metadata_rest_api\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4541EE03-9B55-4789-893B-1D74999C827E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D88C167-5788-44F1-B570-E023C046D323}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="185">
   <si>
     <t>ID</t>
   </si>
@@ -524,16 +524,37 @@
     <t>Abbildung</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Passau</t>
-  </si>
-  <si>
-    <t>Seitenzahl</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>Freie Datierung -1</t>
+  </si>
+  <si>
+    <t>Beginn des Datierungszeitraums -1</t>
+  </si>
+  <si>
+    <t>Ende des Datierungszeitraums -1</t>
+  </si>
+  <si>
+    <t>Jahrhundert -1</t>
+  </si>
+  <si>
+    <t>Taggenaue Datierung -2</t>
+  </si>
+  <si>
+    <t>Freie Datierung -2</t>
+  </si>
+  <si>
+    <t>Beginn des Datierungszeitraums -2</t>
+  </si>
+  <si>
+    <t>Ende des Datierungszeitraums -2</t>
+  </si>
+  <si>
+    <t>Jahrhundert -2</t>
+  </si>
+  <si>
+    <t>id10</t>
+  </si>
+  <si>
+    <t>instiname</t>
   </si>
   <si>
     <t>bauwerk</t>
@@ -542,7 +563,7 @@
     <t>links</t>
   </si>
   <si>
-    <t>id1</t>
+    <t>id15</t>
   </si>
   <si>
     <t>Beschr</t>
@@ -555,13 +576,19 @@
   </si>
   <si>
     <t>kt</t>
+  </si>
+  <si>
+    <t>Regensburg</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -573,217 +600,186 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -820,7 +816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -897,22 +893,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1057,8 +1042,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1375,11 +1361,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1522,13 +1508,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1536,83 +1522,82 @@
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
@@ -1997,13 +1982,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B28"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2011,147 +1996,140 @@
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:1" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="52" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="144"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="144"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="144"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="144"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="144"/>
-    </row>
-    <row r="15" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:1" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="54" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="57" customFormat="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="57" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="59" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="62" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="62" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="63" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="63" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="64" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="145"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2208,13 +2186,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A59"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="D18:E36"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2222,352 +2200,431 @@
     <col min="1" max="1" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:2" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="144"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+    <row r="5" spans="1:2" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="145" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" s="67" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" s="145"/>
+    </row>
+    <row r="6" spans="1:2" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="140"/>
+    </row>
+    <row r="7" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="140" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="140"/>
+    </row>
+    <row r="8" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="140" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="140"/>
+    </row>
+    <row r="9" spans="1:2" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="141" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="141"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="71" t="s">
+    <row r="13" spans="1:2" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="145" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" s="72" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="72" t="s">
+      <c r="B13" s="145"/>
+    </row>
+    <row r="14" spans="1:2" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="140" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="73" t="s">
+      <c r="B14" s="140"/>
+    </row>
+    <row r="15" spans="1:2" s="73" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="140" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74" t="s">
+      <c r="B15" s="140"/>
+    </row>
+    <row r="16" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="146" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75" t="s">
+      <c r="B16" s="146"/>
+    </row>
+    <row r="17" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="133" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" s="76" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="76" t="s">
+      <c r="B17" s="133"/>
+    </row>
+    <row r="18" spans="1:2" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="133" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="77" t="s">
+      <c r="B18" s="133"/>
+    </row>
+    <row r="19" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="133" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" s="78" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78" t="s">
+      <c r="B19" s="133"/>
+    </row>
+    <row r="20" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="134" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" s="79" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="79" t="s">
+      <c r="B20" s="134"/>
+    </row>
+    <row r="21" spans="1:2" s="79" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="140" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" s="80" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="80" t="s">
+      <c r="B21" s="140"/>
+    </row>
+    <row r="22" spans="1:2" s="80" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="140" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" s="81" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="81" t="s">
+      <c r="B22" s="140"/>
+    </row>
+    <row r="23" spans="1:2" s="81" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="141" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" s="82" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="82" t="s">
+      <c r="B23" s="141"/>
+    </row>
+    <row r="24" spans="1:2" s="82" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="145" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="83" t="s">
+      <c r="B24" s="145"/>
+    </row>
+    <row r="25" spans="1:2" s="83" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="140" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" s="84" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="84" t="s">
+      <c r="B25" s="140"/>
+    </row>
+    <row r="26" spans="1:2" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="141" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="85" t="s">
+      <c r="B26" s="141"/>
+    </row>
+    <row r="27" spans="1:2" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="145" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" s="86" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="86" t="s">
+      <c r="B27" s="145"/>
+    </row>
+    <row r="28" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="140" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" s="87" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="87" t="s">
+      <c r="B28" s="140"/>
+    </row>
+    <row r="29" spans="1:2" s="87" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="140" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="88" t="s">
+      <c r="B29" s="140"/>
+    </row>
+    <row r="30" spans="1:2" s="88" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="140" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" s="89" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="89" t="s">
+      <c r="B30" s="140"/>
+    </row>
+    <row r="31" spans="1:2" s="89" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="140" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" s="90" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="90" t="s">
+      <c r="B31" s="140"/>
+    </row>
+    <row r="32" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="141" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="141"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="91" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="91" t="s">
+    <row r="37" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="145" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="92" t="s">
+      <c r="B37" s="145"/>
+    </row>
+    <row r="38" spans="1:2" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="146" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" s="93" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="93" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="94" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="95" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="97" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="98" t="s">
+      <c r="B38" s="146"/>
+    </row>
+    <row r="39" spans="1:2" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="133" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="133"/>
+    </row>
+    <row r="40" spans="1:2" s="94" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="133" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="133"/>
+    </row>
+    <row r="41" spans="1:2" s="95" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="133" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="133"/>
+    </row>
+    <row r="42" spans="1:2" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="133" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="133"/>
+    </row>
+    <row r="43" spans="1:2" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="134" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="134"/>
+    </row>
+    <row r="44" spans="1:2" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="140" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" s="99" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="99" t="s">
+      <c r="B44" s="140"/>
+    </row>
+    <row r="45" spans="1:2" s="99" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="140" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" s="100" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="100" t="s">
+      <c r="B45" s="140"/>
+    </row>
+    <row r="46" spans="1:2" s="100" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="140" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" s="101" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="101" t="s">
+      <c r="B46" s="140"/>
+    </row>
+    <row r="47" spans="1:2" s="101" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="141" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" s="141"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="102" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="102" t="s">
+    <row r="56" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="145" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" s="103" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="103" t="s">
+      <c r="B56" s="145"/>
+    </row>
+    <row r="57" spans="1:2" s="103" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="140" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="104" t="s">
+      <c r="B57" s="140"/>
+    </row>
+    <row r="58" spans="1:2" s="104" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="141" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" s="141"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="B10:SG11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$B$1:$XFD$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="B15 B47 B45" xr:uid="{63551ABB-9C36-4A23-A822-881943787E71}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
           <x14:formula1>
             <xm:f>Person!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B14:SG14 B50:SG50 B46:SG46 B44:SG44</xm:sqref>
+          <xm:sqref>C50:SG50 C46:SG46 C44:SG44 C14:SG14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
           <x14:formula1>
             <xm:f>Group!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B15:SG15 B47:SG47 B45:SG45</xm:sqref>
+          <xm:sqref>C47:SG47 C45:SG45 C15:SG15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
           <x14:formula1>
             <xm:f>Place!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B21:SG21 B52:SG52</xm:sqref>
+          <xm:sqref>C52:SG52 C21:SG21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
           <x14:formula1>
             <xm:f>Institution!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B33:SG33 B35:SG35</xm:sqref>
+          <xm:sqref>C35:SG35 C33:SG33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000007000000}">
           <x14:formula1>
             <xm:f>Architecture!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B36:SG36 B51:SG51</xm:sqref>
+          <xm:sqref>C51:SG51 C36:SG36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-00000C000000}">
           <x14:formula1>
             <xm:f>Activity!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B49:SG49 B53:SG53</xm:sqref>
+          <xm:sqref>C53:SG53 C49:SG49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000011000000}">
           <x14:formula1>
             <xm:f>Reference!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B57:SG57</xm:sqref>
+          <xm:sqref>C57:SG57</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{3CF7106E-A162-4070-A16C-72A9E7C32966}">
+          <x14:formula1>
+            <xm:f>Reference!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B57</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{19B80BF2-8D84-486A-9FB1-7F23C6F64AAF}">
+          <x14:formula1>
+            <xm:f>Activity!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B49 B53</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{C89EB33C-1CB1-4E41-A48A-C32C61830D7E}">
+          <x14:formula1>
+            <xm:f>Architecture!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B36 B51</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{C01E04EB-8986-41DE-AF10-DE61356801F7}">
+          <x14:formula1>
+            <xm:f>Institution!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B33 B35</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{021BD24C-9AF1-4808-995B-9713150A984E}">
+          <x14:formula1>
+            <xm:f>Place!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B21 B52</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{4DD166EC-0C45-4499-96BD-0F7BAA778AAB}">
+          <x14:formula1>
+            <xm:f>Person!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B14 B50 B46 B44</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2579,11 +2636,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2595,8 +2652,8 @@
       <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>165</v>
+      <c r="B1" s="144" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2604,7 +2661,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2612,7 +2669,7 @@
         <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2620,7 +2677,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2646,31 +2703,48 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="B6:B7" xr:uid="{3394C63F-E862-4DDA-84AC-A58C4B5C3AB1}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
             <xm:f>Architecture!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:SG3</xm:sqref>
+          <xm:sqref>C3:SG3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
           <x14:formula1>
             <xm:f>Place!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:SG4</xm:sqref>
+          <xm:sqref>C4:SG4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
           <x14:formula1>
             <xm:f>Reference!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:SG7</xm:sqref>
+          <xm:sqref>C6:SG7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{699BC768-9EB6-4F4D-95F1-FAC0A1AFCED0}">
+          <x14:formula1>
+            <xm:f>Place!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{62197941-E3FA-4C92-89CE-81893E99EAEA}">
+          <x14:formula1>
+            <xm:f>Architecture!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3019,11 +3093,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3035,8 +3109,8 @@
       <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>171</v>
+      <c r="B1" s="144" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3044,7 +3118,7 @@
         <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3052,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3065,7 +3139,7 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3083,7 +3157,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3095,13 +3169,14 @@
       <c r="A10" s="139" t="s">
         <v>14</v>
       </c>
+      <c r="B10" s="145"/>
     </row>
     <row r="11" spans="1:2" s="140" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="140" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="140" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="141" customFormat="1" x14ac:dyDescent="0.3">
@@ -3123,39 +3198,68 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="B11" xr:uid="{F7CD90C3-3DD4-4A16-B327-897AD4A4EC01}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
           <x14:formula1>
             <xm:f>Architecture!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:SG4</xm:sqref>
+          <xm:sqref>C4:SG4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
           <x14:formula1>
             <xm:f>Activity!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:SG5</xm:sqref>
+          <xm:sqref>C5:SG5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000002000000}">
           <x14:formula1>
             <xm:f>Person!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:SG7</xm:sqref>
+          <xm:sqref>C6:SG7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000004000000}">
           <x14:formula1>
             <xm:f>Reference!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B11:SG11</xm:sqref>
+          <xm:sqref>C11:SG11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000005000000}">
           <x14:formula1>
             <xm:f>Object!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B14:SG14</xm:sqref>
+          <xm:sqref>C14:SG14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{BFFCAABE-8DFD-47F0-B5D5-29C06962047C}">
+          <x14:formula1>
+            <xm:f>Object!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{E490D201-FB37-4FF1-A7BA-A54DA9CD1365}">
+          <x14:formula1>
+            <xm:f>Person!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{640B9435-69D3-4875-9D88-B449D3B1481B}">
+          <x14:formula1>
+            <xm:f>Activity!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{3E2105BC-FCE1-4720-9B0B-4F4743F9199D}">
+          <x14:formula1>
+            <xm:f>Architecture!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/test/resources/visitExcelInstitutionAndPlaceTest.xlsx
+++ b/src/test/resources/visitExcelInstitutionAndPlaceTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\metadata_rest_api\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\test_version\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D88C167-5788-44F1-B570-E023C046D323}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636E0402-E826-402D-BD29-E08E59BD730C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="183">
   <si>
     <t>ID</t>
   </si>
@@ -551,9 +551,6 @@
     <t>Jahrhundert -2</t>
   </si>
   <si>
-    <t>id10</t>
-  </si>
-  <si>
     <t>instiname</t>
   </si>
   <si>
@@ -561,9 +558,6 @@
   </si>
   <si>
     <t>links</t>
-  </si>
-  <si>
-    <t>id15</t>
   </si>
   <si>
     <t>Beschr</t>
@@ -588,23 +582,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -897,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1004,9 +988,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1014,37 +997,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1407,13 +1389,13 @@
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="142"/>
+      <c r="B7" s="140"/>
     </row>
     <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="143"/>
+      <c r="B8" s="141"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1470,35 +1452,35 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>Person!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:SG10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B11:SG11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>Object!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B12:SG12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B16:SG16</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>Place!$B$1:$XFD$1</xm:f>
+            <xm:f>Place!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B9:SG9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>Person!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B10:SG10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B11:SG11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B12:SG12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B16:SG16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1932,47 +1914,47 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>Activity!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B13:SG13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+          <x14:formula1>
+            <xm:f>Person!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B45:SG45 B36:SG38 B21:SG23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
+          <x14:formula1>
+            <xm:f>Group!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B46:SG46 B39:SG41 B24:SG26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000013000000}">
+          <x14:formula1>
+            <xm:f>Object!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B48:SG48 B55:SG55</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000014000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B52:SG52</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000012000000}">
+          <x14:formula1>
+            <xm:f>Institution!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B47:SG47</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
-            <xm:f>Place!$B$1:$XFD$1</xm:f>
+            <xm:f>Place!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B3:SG3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
-          <x14:formula1>
-            <xm:f>Activity!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B13:SG13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
-          <x14:formula1>
-            <xm:f>Person!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B45:SG45 B36:SG38 B21:SG23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
-          <x14:formula1>
-            <xm:f>Group!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B46:SG46 B39:SG41 B24:SG26</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000012000000}">
-          <x14:formula1>
-            <xm:f>Institution!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B47:SG47</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000013000000}">
-          <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B48:SG48 B55:SG55</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000014000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B52:SG52</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2142,41 +2124,41 @@
           </x14:formula1>
           <xm:sqref>B7:SG7 B23:SG23</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000004000000}">
+          <x14:formula1>
+            <xm:f>Object!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B20:SG20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000005000000}">
+          <x14:formula1>
+            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B21:SG21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000006000000}">
+          <x14:formula1>
+            <xm:f>Group!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B22:SG22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000008000000}">
+          <x14:formula1>
+            <xm:f>Activity!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B24:SG24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+          <x14:formula1>
+            <xm:f>Institution!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B13:SG14</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
-            <xm:f>Place!$B$1:$XFD$1</xm:f>
+            <xm:f>Place!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B8:SG8 B25:SG25</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
-          <x14:formula1>
-            <xm:f>Institution!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B13:SG14</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000004000000}">
-          <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B20:SG20</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000005000000}">
-          <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B21:SG21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000006000000}">
-          <x14:formula1>
-            <xm:f>Group!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B22:SG22</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000008000000}">
-          <x14:formula1>
-            <xm:f>Activity!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B24:SG24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2189,7 +2171,7 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B1" sqref="B1:B87"/>
@@ -2201,10 +2183,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
+      <c r="B1" s="142"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2222,34 +2204,34 @@
       </c>
     </row>
     <row r="5" spans="1:2" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="145"/>
+      <c r="B5" s="143"/>
     </row>
     <row r="6" spans="1:2" s="67" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="138" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="140"/>
+      <c r="B6" s="138"/>
     </row>
     <row r="7" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="138" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="140"/>
+      <c r="B7" s="138"/>
     </row>
     <row r="8" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="138" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="140"/>
+      <c r="B8" s="138"/>
     </row>
     <row r="9" spans="1:2" s="70" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="141"/>
+      <c r="B9" s="139"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2267,124 +2249,124 @@
       </c>
     </row>
     <row r="13" spans="1:2" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145" t="s">
+      <c r="A13" s="143" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="145"/>
+      <c r="B13" s="143"/>
     </row>
     <row r="14" spans="1:2" s="72" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="140" t="s">
+      <c r="A14" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="140"/>
+      <c r="B14" s="138"/>
     </row>
     <row r="15" spans="1:2" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="140" t="s">
+      <c r="A15" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="140"/>
+      <c r="B15" s="138"/>
     </row>
     <row r="16" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="146"/>
+      <c r="B16" s="144"/>
     </row>
     <row r="17" spans="1:2" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="133" t="s">
+      <c r="A17" s="132" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="133"/>
+      <c r="B17" s="132"/>
     </row>
     <row r="18" spans="1:2" s="76" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="133" t="s">
+      <c r="A18" s="132" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="133"/>
+      <c r="B18" s="132"/>
     </row>
     <row r="19" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="133" t="s">
+      <c r="A19" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="133"/>
+      <c r="B19" s="132"/>
     </row>
     <row r="20" spans="1:2" s="78" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="134" t="s">
+      <c r="A20" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="134"/>
+      <c r="B20" s="133"/>
     </row>
     <row r="21" spans="1:2" s="79" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="140" t="s">
+      <c r="A21" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="140"/>
+      <c r="B21" s="138"/>
     </row>
     <row r="22" spans="1:2" s="80" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="140" t="s">
+      <c r="A22" s="138" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="140"/>
+      <c r="B22" s="138"/>
     </row>
     <row r="23" spans="1:2" s="81" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="141" t="s">
+      <c r="A23" s="139" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="141"/>
+      <c r="B23" s="139"/>
     </row>
     <row r="24" spans="1:2" s="82" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="145" t="s">
+      <c r="A24" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="145"/>
+      <c r="B24" s="143"/>
     </row>
     <row r="25" spans="1:2" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="140" t="s">
+      <c r="A25" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="140"/>
+      <c r="B25" s="138"/>
     </row>
     <row r="26" spans="1:2" s="84" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="141" t="s">
+      <c r="A26" s="139" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="141"/>
+      <c r="B26" s="139"/>
     </row>
     <row r="27" spans="1:2" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="145" t="s">
+      <c r="A27" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="145"/>
+      <c r="B27" s="143"/>
     </row>
     <row r="28" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="140" t="s">
+      <c r="A28" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="140"/>
+      <c r="B28" s="138"/>
     </row>
     <row r="29" spans="1:2" s="87" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="140" t="s">
+      <c r="A29" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="140"/>
+      <c r="B29" s="138"/>
     </row>
     <row r="30" spans="1:2" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="140"/>
+      <c r="B30" s="138"/>
     </row>
     <row r="31" spans="1:2" s="89" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="140" t="s">
+      <c r="A31" s="138" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="140"/>
+      <c r="B31" s="138"/>
     </row>
     <row r="32" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="141" t="s">
+      <c r="A32" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="141"/>
+      <c r="B32" s="139"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -2407,70 +2389,70 @@
       </c>
     </row>
     <row r="37" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="145" t="s">
+      <c r="A37" s="143" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="145"/>
+      <c r="B37" s="143"/>
     </row>
     <row r="38" spans="1:2" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="146" t="s">
+      <c r="A38" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="146"/>
+      <c r="B38" s="144"/>
     </row>
     <row r="39" spans="1:2" s="93" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="133" t="s">
+      <c r="A39" s="132" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="133"/>
+      <c r="B39" s="132"/>
     </row>
     <row r="40" spans="1:2" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="133" t="s">
+      <c r="A40" s="132" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="133"/>
+      <c r="B40" s="132"/>
     </row>
     <row r="41" spans="1:2" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="133" t="s">
+      <c r="A41" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="B41" s="133"/>
+      <c r="B41" s="132"/>
     </row>
     <row r="42" spans="1:2" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="133" t="s">
+      <c r="A42" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="B42" s="133"/>
+      <c r="B42" s="132"/>
     </row>
     <row r="43" spans="1:2" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="134" t="s">
+      <c r="A43" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="134"/>
+      <c r="B43" s="133"/>
     </row>
     <row r="44" spans="1:2" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="140" t="s">
+      <c r="A44" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="140"/>
+      <c r="B44" s="138"/>
     </row>
     <row r="45" spans="1:2" s="99" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="140" t="s">
+      <c r="A45" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="140"/>
+      <c r="B45" s="138"/>
     </row>
     <row r="46" spans="1:2" s="100" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="140" t="s">
+      <c r="A46" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="140"/>
+      <c r="B46" s="138"/>
     </row>
     <row r="47" spans="1:2" s="101" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="141" t="s">
+      <c r="A47" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="141"/>
+      <c r="B47" s="139"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -2513,22 +2495,22 @@
       </c>
     </row>
     <row r="56" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="145" t="s">
+      <c r="A56" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="145"/>
+      <c r="B56" s="143"/>
     </row>
     <row r="57" spans="1:2" s="103" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="140" t="s">
+      <c r="A57" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="140"/>
+      <c r="B57" s="138"/>
     </row>
     <row r="58" spans="1:2" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="141" t="s">
+      <c r="A58" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="141"/>
+      <c r="B58" s="139"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -2560,71 +2542,71 @@
           </x14:formula1>
           <xm:sqref>C47:SG47 C45:SG45 C15:SG15</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000007000000}">
+          <x14:formula1>
+            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>C51:SG51 C36:SG36</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-00000C000000}">
+          <x14:formula1>
+            <xm:f>Activity!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>C53:SG53 C49:SG49</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000011000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>C57:SG57</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{3CF7106E-A162-4070-A16C-72A9E7C32966}">
+          <x14:formula1>
+            <xm:f>Reference!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B57</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{19B80BF2-8D84-486A-9FB1-7F23C6F64AAF}">
+          <x14:formula1>
+            <xm:f>Activity!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B49 B53</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{C89EB33C-1CB1-4E41-A48A-C32C61830D7E}">
+          <x14:formula1>
+            <xm:f>Architecture!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B36 B51</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{C01E04EB-8986-41DE-AF10-DE61356801F7}">
+          <x14:formula1>
+            <xm:f>Institution!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B33 B35</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{021BD24C-9AF1-4808-995B-9713150A984E}">
+          <x14:formula1>
+            <xm:f>Place!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B21 B52</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{4DD166EC-0C45-4499-96BD-0F7BAA778AAB}">
+          <x14:formula1>
+            <xm:f>Person!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B14 B50 B46 B44</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
+          <x14:formula1>
+            <xm:f>Institution!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C35:SG35 C33:SG33</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
           <x14:formula1>
-            <xm:f>Place!$B$1:$XFD$1</xm:f>
+            <xm:f>Place!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C52:SG52 C21:SG21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
-          <x14:formula1>
-            <xm:f>Institution!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>C35:SG35 C33:SG33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000007000000}">
-          <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>C51:SG51 C36:SG36</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-00000C000000}">
-          <x14:formula1>
-            <xm:f>Activity!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>C53:SG53 C49:SG49</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000011000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>C57:SG57</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{3CF7106E-A162-4070-A16C-72A9E7C32966}">
-          <x14:formula1>
-            <xm:f>Reference!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B57</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{19B80BF2-8D84-486A-9FB1-7F23C6F64AAF}">
-          <x14:formula1>
-            <xm:f>Activity!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B49 B53</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{C89EB33C-1CB1-4E41-A48A-C32C61830D7E}">
-          <x14:formula1>
-            <xm:f>Architecture!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B36 B51</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{C01E04EB-8986-41DE-AF10-DE61356801F7}">
-          <x14:formula1>
-            <xm:f>Institution!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B33 B35</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{021BD24C-9AF1-4808-995B-9713150A984E}">
-          <x14:formula1>
-            <xm:f>Place!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B21 B52</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{4DD166EC-0C45-4499-96BD-0F7BAA778AAB}">
-          <x14:formula1>
-            <xm:f>Person!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B14 B50 B46 B44</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2634,13 +2616,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2648,17 +2630,17 @@
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="105" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="144" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>175</v>
@@ -2666,49 +2648,41 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>177</v>
+      <c r="B7" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B6:B7" xr:uid="{3394C63F-E862-4DDA-84AC-A58C4B5C3AB1}">
+    <dataValidation type="list" allowBlank="1" sqref="B5:B6" xr:uid="{3394C63F-E862-4DDA-84AC-A58C4B5C3AB1}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -2720,31 +2694,31 @@
           <x14:formula1>
             <xm:f>Architecture!$B$1:$XFD$1</xm:f>
           </x14:formula1>
+          <xm:sqref>C2:SG2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5:SG6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{699BC768-9EB6-4F4D-95F1-FAC0A1AFCED0}">
+          <x14:formula1>
+            <xm:f>Place!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{62197941-E3FA-4C92-89CE-81893E99EAEA}">
+          <x14:formula1>
+            <xm:f>Architecture!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+          <x14:formula1>
+            <xm:f>Place!#REF!</xm:f>
+          </x14:formula1>
           <xm:sqref>C3:SG3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
-          <x14:formula1>
-            <xm:f>Place!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4:SG4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>C6:SG7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{699BC768-9EB6-4F4D-95F1-FAC0A1AFCED0}">
-          <x14:formula1>
-            <xm:f>Place!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{62197941-E3FA-4C92-89CE-81893E99EAEA}">
-          <x14:formula1>
-            <xm:f>Architecture!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2768,8 +2742,8 @@
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="106" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2798,83 +2772,83 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="107" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
+    <row r="7" spans="1:1" s="106" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="106" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="108" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="s">
+    <row r="8" spans="1:1" s="107" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="107" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="109" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+    <row r="9" spans="1:1" s="108" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="108" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110" t="s">
+    <row r="10" spans="1:1" s="109" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="109" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="111" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111" t="s">
+    <row r="11" spans="1:1" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="110" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="112" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="112" t="s">
+    <row r="12" spans="1:1" s="111" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="111" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="113" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="113" t="s">
+    <row r="13" spans="1:1" s="112" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="112" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="114" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="114" t="s">
+    <row r="14" spans="1:1" s="113" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="113" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="115" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="115" t="s">
+    <row r="15" spans="1:1" s="114" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="114" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="116" t="s">
+    <row r="16" spans="1:1" s="115" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="115" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="117" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="117" t="s">
+    <row r="17" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="116" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="118" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="118" t="s">
+    <row r="18" spans="1:1" s="117" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="117" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="119" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="119" t="s">
+    <row r="19" spans="1:1" s="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="118" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="120" t="s">
+    <row r="20" spans="1:1" s="119" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="119" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="121" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="121" t="s">
+    <row r="21" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="120" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="122" t="s">
+    <row r="22" spans="1:1" s="121" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="121" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2893,63 +2867,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="123" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="123" t="s">
+    <row r="26" spans="1:1" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="122" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="124" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="124" t="s">
+    <row r="27" spans="1:1" s="123" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="123" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="125" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="125" t="s">
+    <row r="28" spans="1:1" s="124" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="124" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="126" t="s">
+    <row r="29" spans="1:1" s="125" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="125" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="127" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="127" t="s">
+    <row r="30" spans="1:1" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="126" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="128" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="128" t="s">
+    <row r="31" spans="1:1" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="127" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="129" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="129" t="s">
+    <row r="32" spans="1:1" s="128" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="128" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="130" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="130" t="s">
+    <row r="33" spans="1:1" s="129" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="129" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="131" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="131" t="s">
+    <row r="34" spans="1:1" s="130" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="130" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="132" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="132" t="s">
+    <row r="35" spans="1:1" s="131" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="131" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="133" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="133" t="s">
+    <row r="36" spans="1:1" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="132" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="134" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="134" t="s">
+    <row r="37" spans="1:1" s="133" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="133" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3018,18 +2992,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="135" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="135" t="s">
+    <row r="51" spans="1:1" s="134" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="134" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:1" s="136" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="136" t="s">
+    <row r="52" spans="1:1" s="135" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="135" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:1" s="137" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="137" t="s">
+    <row r="53" spans="1:1" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="136" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3053,35 +3027,35 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-000006000000}">
+          <x14:formula1>
+            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B39:SG39 B41:SG43</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-000007000000}">
+          <x14:formula1>
+            <xm:f>Activity!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B40:SG40</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-00000B000000}">
+          <x14:formula1>
+            <xm:f>Object!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B55:SG55 B47:SG48</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-00000D000000}">
+          <x14:formula1>
+            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B52:SG52</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
           <x14:formula1>
-            <xm:f>Place!$B$1:$XFD$1</xm:f>
+            <xm:f>Place!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B13:SG13 B22:SG22</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-000006000000}">
-          <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B39:SG39 B41:SG43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-000007000000}">
-          <x14:formula1>
-            <xm:f>Activity!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B40:SG40</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-00000B000000}">
-          <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B55:SG55 B47:SG48</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-00000D000000}">
-          <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B52:SG52</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3091,13 +3065,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3105,101 +3079,93 @@
     <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="144" t="s">
-        <v>178</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="139" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="139" t="s">
+    <row r="9" spans="1:2" s="137" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="145"/>
-    </row>
-    <row r="11" spans="1:2" s="140" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="140" t="s">
+      <c r="B9" s="143"/>
+    </row>
+    <row r="10" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="140" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="141" t="s">
+      <c r="B10" s="138" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="139" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="141">
+      <c r="B11" s="139">
         <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B11" xr:uid="{F7CD90C3-3DD4-4A16-B327-897AD4A4EC01}">
+    <dataValidation type="list" allowBlank="1" sqref="B10" xr:uid="{F7CD90C3-3DD4-4A16-B327-897AD4A4EC01}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -3211,55 +3177,55 @@
           <x14:formula1>
             <xm:f>Architecture!$B$1:$XFD$1</xm:f>
           </x14:formula1>
+          <xm:sqref>C3:SG3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
+          <x14:formula1>
+            <xm:f>Activity!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
           <xm:sqref>C4:SG4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
-          <x14:formula1>
-            <xm:f>Activity!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>C5:SG5</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000002000000}">
           <x14:formula1>
             <xm:f>Person!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>C6:SG7</xm:sqref>
+          <xm:sqref>C5:SG6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000004000000}">
           <x14:formula1>
             <xm:f>Reference!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>C11:SG11</xm:sqref>
+          <xm:sqref>C10:SG10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000005000000}">
           <x14:formula1>
             <xm:f>Object!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>C14:SG14</xm:sqref>
+          <xm:sqref>C13:SG13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{BFFCAABE-8DFD-47F0-B5D5-29C06962047C}">
           <x14:formula1>
             <xm:f>Object!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B14</xm:sqref>
+          <xm:sqref>B13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{E490D201-FB37-4FF1-A7BA-A54DA9CD1365}">
           <x14:formula1>
             <xm:f>Person!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:B7</xm:sqref>
+          <xm:sqref>B5:B6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{640B9435-69D3-4875-9D88-B449D3B1481B}">
           <x14:formula1>
             <xm:f>Activity!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B5</xm:sqref>
+          <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{3E2105BC-FCE1-4720-9B0B-4F4743F9199D}">
           <x14:formula1>
             <xm:f>Architecture!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
+          <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/test/resources/visitExcelInstitutionAndPlaceTest.xlsx
+++ b/src/test/resources/visitExcelInstitutionAndPlaceTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\test_version\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636E0402-E826-402D-BD29-E08E59BD730C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E17F329-69D2-45C1-A157-6FCECA237609}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="183">
   <si>
     <t>ID</t>
   </si>
@@ -2529,7 +2529,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
           <x14:formula1>
             <xm:f>Person!$B$1:$XFD$1</xm:f>
@@ -2582,31 +2582,19 @@
           <x14:formula1>
             <xm:f>Institution!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B33 B35</xm:sqref>
+          <xm:sqref>B35:SG35 B33:SG33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{021BD24C-9AF1-4808-995B-9713150A984E}">
           <x14:formula1>
             <xm:f>Place!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B21 B52</xm:sqref>
+          <xm:sqref>B52:SG52 B21:SG21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{4DD166EC-0C45-4499-96BD-0F7BAA778AAB}">
           <x14:formula1>
             <xm:f>Person!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B14 B50 B46 B44</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
-          <x14:formula1>
-            <xm:f>Institution!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C35:SG35 C33:SG33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
-          <x14:formula1>
-            <xm:f>Place!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C52:SG52 C21:SG21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2618,11 +2606,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2658,6 +2646,9 @@
       <c r="A4" t="s">
         <v>135</v>
       </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2669,6 +2660,9 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2689,7 +2683,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
             <xm:f>Architecture!$B$1:$XFD$1</xm:f>
@@ -2706,19 +2700,13 @@
           <x14:formula1>
             <xm:f>Place!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
+          <xm:sqref>B3:SG3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{62197941-E3FA-4C92-89CE-81893E99EAEA}">
           <x14:formula1>
             <xm:f>Architecture!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
-          <x14:formula1>
-            <xm:f>Place!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3:SG3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3067,7 +3055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
